--- a/triples judgement - remon.xlsx
+++ b/triples judgement - remon.xlsx
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>247</v>
